--- a/biology/Botanique/Licaria/Licaria.xlsx
+++ b/biology/Botanique/Licaria/Licaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Licaria est un genre de plantes à fleurs néotropicale, appartenant à la famille des Lauraceae, comptant 108 à 130 espèces, et dont l'espèce type est Licaria guianensis Aubl.. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Licaria regroupe des arbustes ou arbres de taille moyenne, rarement grande. 
 Les feuilles sont alternes ou opposées, rarement quelque peu groupées à l'extrémité des branches, entières. 
@@ -520,7 +534,7 @@
 On compte 3 étamines, à 2 cellules, avec 2 glandes à la base.
 Les locelles sont le plus souvent apicales et s'ouvrant vers le style ou loin de lui.
 Les staminodes sont présents ou absents. 
-Le fruit est une baie à une graine, avec la cupule qui a généralement une forme distincte et une double marge[3].
+Le fruit est une baie à une graine, avec la cupule qui a généralement une forme distincte et une double marge.
 </t>
         </is>
       </c>
@@ -549,9 +563,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Licaria est un genre néotropical représenté de la Floride au Brésil en passant par le Mexique, l'Amérique centrale, les Antilles, la Colombie, le Venezuela, Trinidad, le Guyana, le Suriname, la Guyane, l'Équateur, le Pérou, et la Bolivie[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Licaria est un genre néotropical représenté de la Floride au Brésil en passant par le Mexique, l'Amérique centrale, les Antilles, la Colombie, le Venezuela, Trinidad, le Guyana, le Suriname, la Guyane, l'Équateur, le Pérou, et la Bolivie.
 </t>
         </is>
       </c>
@@ -580,9 +596,11 @@
           <t>Liste des espèces et variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (31 mai 2024)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (31 mai 2024) :
 Acrodiclidium camara M.R.Schomb.
 Acrodiclidium coppenamense Pulle
 Acrodiclidium elaeophorum Barb.Rodr. ex P.Lecointe
@@ -691,7 +709,7 @@
 Licaria velutina van der Werff
 Licaria velutina VanDerWerff
 Licaria vernicosa (Mez) Kosterm.
-Selon Tropicos                                           (31 mai 2024)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (31 mai 2024) (Attention liste brute contenant possiblement des synonymes) :
 Licaria agglomerata van der Werff, 2009
 Licaria alata Miranda, 1954
 Licaria amara (Mez) Kosterm., 1937
